--- a/Vehicle Optimization Tables JS&R_small.xlsx
+++ b/Vehicle Optimization Tables JS&R_small.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\chelm\documents\workingfolder\projectroot\projects\python3\gmat-automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chelm\Documents\WorkingFolder\ProjectRoot\projects\GMAT\GMAT-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59126F0-5143-4E0C-AFD8-A3A04279A56C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8CE2B8-CAF5-4344-89B2-F6A0464DEEBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="11595" tabRatio="983" firstSheet="4" activeTab="4" xr2:uid="{B46CED55-D31E-4830-8707-8BA8DF62075B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" tabRatio="983" firstSheet="4" activeTab="10" xr2:uid="{B46CED55-D31E-4830-8707-8BA8DF62075B}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions" sheetId="48" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="Epoch_2">'Mission Params'!$B$21</definedName>
     <definedName name="Epoch_3">'Mission Params'!$B$22</definedName>
     <definedName name="Epoch_4">'Mission Params'!$B$23</definedName>
-    <definedName name="ExternalData_1" localSheetId="10" hidden="1">GMAT!$A$1:$J$8</definedName>
+    <definedName name="ExternalData_1" localSheetId="10" hidden="1">GMAT!$A$1:$J$15</definedName>
     <definedName name="Final_SMA">'Mission Params'!$B$6</definedName>
     <definedName name="g0">'Mission Params'!$B$2</definedName>
     <definedName name="Inclination1">'Mission Params'!$B$16</definedName>
@@ -976,7 +976,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="222">
   <si>
     <t>Mbo</t>
   </si>
@@ -2675,8 +2675,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24A8F13-9E08-41C7-A6E1-B27138B2517B}" name="configspec" displayName="configspec" ref="A1:K8" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:K8" xr:uid="{5264FF31-9D9E-449E-81F8-150D29B3852C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24A8F13-9E08-41C7-A6E1-B27138B2517B}" name="configspec" displayName="configspec" ref="A1:K15" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:K15" xr:uid="{5264FF31-9D9E-449E-81F8-150D29B3852C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K8">
     <sortCondition ref="J1:J8"/>
   </sortState>
@@ -10168,8 +10168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0D97AB-4AF0-493E-80E8-592CB4A9EE45}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10476,6 +10476,265 @@
         <v>520.84</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="118" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="12">
+        <v>128.96</v>
+      </c>
+      <c r="D9" s="12">
+        <v>32.24</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F9">
+        <v>1979</v>
+      </c>
+      <c r="G9" s="55">
+        <v>7.44</v>
+      </c>
+      <c r="H9" s="12">
+        <v>6500.3850000000002</v>
+      </c>
+      <c r="I9" s="12">
+        <f>0.17*configspec[[#This Row],[Dry Mass]]</f>
+        <v>1105.0654500000001</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <f>configspec[[#This Row],[Max Thrust Power]]+5</f>
+        <v>133.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="12">
+        <v>128.976</v>
+      </c>
+      <c r="D10" s="12">
+        <v>32.244</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F10">
+        <v>2217</v>
+      </c>
+      <c r="G10" s="55">
+        <v>7.1840000000000002</v>
+      </c>
+      <c r="H10" s="12">
+        <v>8024.78</v>
+      </c>
+      <c r="I10" s="12">
+        <f>0.17*configspec[[#This Row],[Dry Mass]]</f>
+        <v>1364.2126000000001</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <f>configspec[[#This Row],[Max Thrust Power]]+5</f>
+        <v>133.976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="118" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="12">
+        <v>191.96800000000002</v>
+      </c>
+      <c r="D11" s="12">
+        <v>23.996000000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F11">
+        <v>1977</v>
+      </c>
+      <c r="G11" s="55">
+        <v>11.68</v>
+      </c>
+      <c r="H11" s="12">
+        <v>11060</v>
+      </c>
+      <c r="I11" s="12">
+        <f>0.17*configspec[[#This Row],[Dry Mass]]</f>
+        <v>1880.2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <f>configspec[[#This Row],[Max Thrust Power]]+5</f>
+        <v>196.96800000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="118" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="12">
+        <v>257.92</v>
+      </c>
+      <c r="D12" s="12">
+        <v>32.24</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F12">
+        <v>1979</v>
+      </c>
+      <c r="G12" s="55">
+        <v>14.88</v>
+      </c>
+      <c r="H12" s="12">
+        <v>14855</v>
+      </c>
+      <c r="I12" s="12">
+        <f>0.17*configspec[[#This Row],[Dry Mass]]</f>
+        <v>2525.3500000000004</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <f>configspec[[#This Row],[Max Thrust Power]]+5</f>
+        <v>262.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="118" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="12">
+        <v>386.88</v>
+      </c>
+      <c r="D13" s="12">
+        <v>32.24</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F13">
+        <v>1979</v>
+      </c>
+      <c r="G13" s="55">
+        <v>22.32</v>
+      </c>
+      <c r="H13" s="12">
+        <v>26348</v>
+      </c>
+      <c r="I13" s="12">
+        <f>0.17*configspec[[#This Row],[Dry Mass]]</f>
+        <v>4479.1600000000008</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <f>configspec[[#This Row],[Max Thrust Power]]+5</f>
+        <v>391.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="118" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="12">
+        <v>383.93600000000004</v>
+      </c>
+      <c r="D14" s="12">
+        <v>23.996000000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F14">
+        <v>1977</v>
+      </c>
+      <c r="G14" s="55">
+        <v>23.36</v>
+      </c>
+      <c r="H14" s="12">
+        <v>27415</v>
+      </c>
+      <c r="I14" s="12">
+        <f>0.17*configspec[[#This Row],[Dry Mass]]</f>
+        <v>4660.55</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <f>configspec[[#This Row],[Max Thrust Power]]+5</f>
+        <v>388.93600000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="12">
+        <v>515.84</v>
+      </c>
+      <c r="D15" s="12">
+        <v>32.24</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F15">
+        <v>1979</v>
+      </c>
+      <c r="G15" s="55">
+        <v>29.76</v>
+      </c>
+      <c r="H15" s="12">
+        <v>37017</v>
+      </c>
+      <c r="I15" s="12">
+        <f>0.17*configspec[[#This Row],[Dry Mass]]</f>
+        <v>6292.89</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <f>configspec[[#This Row],[Max Thrust Power]]+5</f>
+        <v>520.84</v>
+      </c>
+    </row>
     <row r="19" spans="13:17" x14ac:dyDescent="0.25">
       <c r="O19" t="s">
         <v>217</v>
@@ -10484,7 +10743,7 @@
     <row r="20" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M20">
         <f>ROWS(configspec[])</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N20" t="s">
         <v>211</v>
@@ -10495,7 +10754,7 @@
       </c>
       <c r="P20">
         <f>M20*O20</f>
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="Q20" t="s">
         <v>216</v>
@@ -22034,7 +22293,7 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -22333,7 +22592,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>64</v>
       </c>

--- a/Vehicle Optimization Tables JS&R_small.xlsx
+++ b/Vehicle Optimization Tables JS&R_small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chelm\Documents\WorkingFolder\ProjectRoot\projects\GMAT\GMAT-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8CE2B8-CAF5-4344-89B2-F6A0464DEEBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79FDB04-1F56-47E0-83EF-E9B91F2BD0CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" tabRatio="983" firstSheet="4" activeTab="10" xr2:uid="{B46CED55-D31E-4830-8707-8BA8DF62075B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" tabRatio="983" firstSheet="4" activeTab="4" xr2:uid="{B46CED55-D31E-4830-8707-8BA8DF62075B}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions" sheetId="48" r:id="rId1"/>
@@ -10168,7 +10168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0D97AB-4AF0-493E-80E8-592CB4A9EE45}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -22293,8 +22293,8 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22503,7 +22503,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>51.2</v>
+        <v>51.6</v>
       </c>
       <c r="C17">
         <v>-0.64</v>
